--- a/DBStructure.xlsx
+++ b/DBStructure.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>sizeof CAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>CASID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -460,68 +456,59 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
+  <mergeCells count="8">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
